--- a/Excel文件/xiakeqian/心法经验表.xlsx
+++ b/Excel文件/xiakeqian/心法经验表.xlsx
@@ -1,28 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A724AC-66B2-4FAB-B5CF-14E856678577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DLC_RoutineExp" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -78,8 +68,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,9 +125,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +165,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -209,6 +199,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -243,9 +234,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,16 +410,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -513,7 +505,7 @@
         <v>1000</v>
       </c>
       <c r="Q2">
-        <f>K13/$P$2</f>
+        <f>K14/$P$2</f>
         <v>14</v>
       </c>
       <c r="R2">
@@ -521,7 +513,7 @@
         <v>8.7142857142857135</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -562,11 +554,11 @@
         <v>17000</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K23" si="0">SUM(B3:J3)</f>
+        <f t="shared" ref="K3:K24" si="0">SUM(B3:J3)</f>
         <v>65700</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q12" si="1">K14/$P$2</f>
+        <f t="shared" ref="Q3:Q12" si="1">K15/$P$2</f>
         <v>15.8</v>
       </c>
       <c r="R3">
@@ -574,7 +566,7 @@
         <v>7.7215189873417716</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -627,7 +619,7 @@
         <v>6.9318181818181817</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -680,7 +672,7 @@
         <v>6.2886597938144337</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -733,7 +725,7 @@
         <v>5.7547169811320753</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -786,7 +778,7 @@
         <v>5.3043478260869561</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -839,7 +831,7 @@
         <v>4.919354838709677</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -892,7 +884,7 @@
         <v>4.5864661654135332</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -945,7 +937,7 @@
         <v>4.295774647887324</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -998,7 +990,7 @@
         <v>4.0397350993377481</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1051,453 +1043,453 @@
         <v>3.8125</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f>C2-B2</f>
         <v>1000</v>
       </c>
-      <c r="D13">
-        <f t="shared" ref="D13:J13" si="12">D2-C2</f>
+      <c r="D14">
+        <f t="shared" ref="D14:J14" si="12">D2-C2</f>
         <v>1000</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <f t="shared" si="12"/>
         <v>1000</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <f t="shared" si="12"/>
         <v>1500</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <f t="shared" si="12"/>
         <v>1500</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <f t="shared" si="12"/>
         <v>1500</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <f t="shared" si="12"/>
         <v>2000</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <f t="shared" si="12"/>
         <v>4500</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>2</v>
       </c>
-      <c r="C14">
-        <f t="shared" ref="C14:J23" si="13">C3-B3</f>
+      <c r="C15">
+        <f t="shared" ref="C15:J24" si="13">C3-B3</f>
         <v>1200</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <f t="shared" si="13"/>
         <v>1200</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <f t="shared" si="13"/>
         <v>1200</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <f t="shared" si="13"/>
         <v>1700</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <f t="shared" si="13"/>
         <v>1700</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <f t="shared" si="13"/>
         <v>1700</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <f t="shared" si="13"/>
         <v>2200</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <f t="shared" si="13"/>
         <v>4900</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <f t="shared" si="0"/>
         <v>15800</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <f t="shared" si="13"/>
         <v>1400</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <f t="shared" si="13"/>
         <v>1400</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <f t="shared" si="13"/>
         <v>1400</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <f t="shared" si="13"/>
         <v>1900</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <f t="shared" si="13"/>
         <v>1900</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <f t="shared" si="13"/>
         <v>1900</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <f t="shared" si="13"/>
         <v>2400</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <f t="shared" si="13"/>
         <v>5300</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <f t="shared" si="0"/>
         <v>17600</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17">
         <v>4</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <f t="shared" si="13"/>
         <v>1600</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <f t="shared" si="13"/>
         <v>1600</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <f t="shared" si="13"/>
         <v>1600</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <f t="shared" si="13"/>
         <v>2100</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <f t="shared" si="13"/>
         <v>2100</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <f t="shared" si="13"/>
         <v>2100</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <f t="shared" si="13"/>
         <v>2600</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <f t="shared" si="13"/>
         <v>5700</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <f t="shared" si="0"/>
         <v>19400</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18">
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <f t="shared" si="13"/>
         <v>1800</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <f t="shared" si="13"/>
         <v>1800</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <f t="shared" si="13"/>
         <v>1800</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <f t="shared" si="13"/>
         <v>2300</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <f t="shared" si="13"/>
         <v>2300</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <f t="shared" si="13"/>
         <v>2300</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <f t="shared" si="13"/>
         <v>2800</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <f t="shared" si="13"/>
         <v>6100</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <f t="shared" si="0"/>
         <v>21200</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19">
         <v>6</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <f t="shared" si="13"/>
         <v>2000</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <f t="shared" si="13"/>
         <v>2000</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <f t="shared" si="13"/>
         <v>2000</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <f t="shared" si="13"/>
         <v>2500</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <f t="shared" si="13"/>
         <v>2500</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <f t="shared" si="13"/>
         <v>2500</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <f t="shared" si="13"/>
         <v>3000</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <f t="shared" si="13"/>
         <v>6500</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <f t="shared" si="0"/>
         <v>23000</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20">
         <v>7</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <f t="shared" si="13"/>
         <v>2200</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <f t="shared" si="13"/>
         <v>2200</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <f t="shared" si="13"/>
         <v>2200</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <f t="shared" si="13"/>
         <v>2700</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <f t="shared" si="13"/>
         <v>2700</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <f t="shared" si="13"/>
         <v>2700</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <f t="shared" si="13"/>
         <v>3200</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <f t="shared" si="13"/>
         <v>6900</v>
       </c>
-      <c r="K19">
+      <c r="K20">
         <f t="shared" si="0"/>
         <v>24800</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21">
         <v>8</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <f t="shared" si="13"/>
         <v>2400</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <f t="shared" si="13"/>
         <v>2400</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <f t="shared" si="13"/>
         <v>2400</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <f t="shared" si="13"/>
         <v>2900</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <f t="shared" si="13"/>
         <v>2900</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <f t="shared" si="13"/>
         <v>2900</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <f t="shared" si="13"/>
         <v>3400</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <f t="shared" si="13"/>
         <v>7300</v>
       </c>
-      <c r="K20">
+      <c r="K21">
         <f t="shared" si="0"/>
         <v>26600</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22">
         <v>9</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <f t="shared" si="13"/>
         <v>2600</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <f t="shared" si="13"/>
         <v>2600</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <f t="shared" si="13"/>
         <v>2600</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <f t="shared" si="13"/>
         <v>3100</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <f t="shared" si="13"/>
         <v>3100</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <f t="shared" si="13"/>
         <v>3100</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <f t="shared" si="13"/>
         <v>3600</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <f t="shared" si="13"/>
         <v>7700</v>
       </c>
-      <c r="K21">
+      <c r="K22">
         <f t="shared" si="0"/>
         <v>28400</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23">
         <v>10</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <f t="shared" si="13"/>
         <v>2800</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <f t="shared" si="13"/>
         <v>2800</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <f t="shared" si="13"/>
         <v>2800</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <f t="shared" si="13"/>
         <v>3300</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <f t="shared" si="13"/>
         <v>3300</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <f t="shared" si="13"/>
         <v>3300</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <f t="shared" si="13"/>
         <v>3800</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <f t="shared" si="13"/>
         <v>8100</v>
       </c>
-      <c r="K22">
+      <c r="K23">
         <f t="shared" si="0"/>
         <v>30200</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24">
         <v>11</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <f t="shared" si="13"/>
         <v>3000</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <f t="shared" si="13"/>
         <v>3000</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <f t="shared" si="13"/>
         <v>3000</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <f t="shared" si="13"/>
         <v>3500</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <f t="shared" si="13"/>
         <v>3500</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <f t="shared" si="13"/>
         <v>3500</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-      <c r="J23">
+      <c r="J24">
         <f t="shared" si="13"/>
         <v>8500</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <f t="shared" si="0"/>
         <v>32000</v>
       </c>
@@ -1510,16 +1502,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K23"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1583,7 +1575,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1615,7 +1607,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1647,7 +1639,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1679,7 +1671,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1711,7 +1703,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1743,7 +1735,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1775,7 +1767,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1807,7 +1799,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1839,7 +1831,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1871,7 +1863,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1903,7 +1895,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C13">
         <f>C2-B2</f>
         <v>1000</v>
@@ -1941,7 +1933,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C14">
         <f t="shared" ref="C14:J14" si="1">C3-B3</f>
         <v>1500</v>
@@ -1979,7 +1971,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C15">
         <f t="shared" ref="C15:J15" si="3">C4-B4</f>
         <v>2000</v>
@@ -2017,7 +2009,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C16">
         <f t="shared" ref="C16:J16" si="4">C5-B5</f>
         <v>2500</v>
@@ -2055,7 +2047,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="17" spans="3:11">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C17">
         <f t="shared" ref="C17:J17" si="5">C6-B6</f>
         <v>3000</v>
@@ -2093,7 +2085,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="18" spans="3:11">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C18">
         <f t="shared" ref="C18:J18" si="6">C7-B7</f>
         <v>3500</v>
@@ -2131,7 +2123,7 @@
         <v>38500</v>
       </c>
     </row>
-    <row r="19" spans="3:11">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C19">
         <f t="shared" ref="C19:J19" si="7">C8-B8</f>
         <v>4000</v>
@@ -2169,7 +2161,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="20" spans="3:11">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C20">
         <f t="shared" ref="C20:J20" si="8">C9-B9</f>
         <v>4500</v>
@@ -2207,7 +2199,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="21" spans="3:11">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C21">
         <f t="shared" ref="C21:J21" si="9">C10-B10</f>
         <v>5000</v>
@@ -2245,7 +2237,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="22" spans="3:11">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C22">
         <f t="shared" ref="C22:J22" si="10">C11-B11</f>
         <v>5500</v>
@@ -2283,7 +2275,7 @@
         <v>60500</v>
       </c>
     </row>
-    <row r="23" spans="3:11">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C23">
         <f t="shared" ref="C23:J23" si="11">C12-B12</f>
         <v>10000</v>
@@ -2328,16 +2320,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="A2:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2369,7 +2361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2405,7 +2397,7 @@
         <v>74000</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2450,7 +2442,7 @@
         <v>92200</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2495,7 +2487,7 @@
         <v>110400</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2540,7 +2532,7 @@
         <v>128600</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2585,7 +2577,7 @@
         <v>146800</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2630,7 +2622,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2675,7 +2667,7 @@
         <v>183200</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2720,7 +2712,7 @@
         <v>201400</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2765,7 +2757,7 @@
         <v>219600</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2810,7 +2802,7 @@
         <v>237800</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2855,7 +2847,7 @@
         <v>256000</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B13">
         <f>B2-A2</f>
         <v>1000</v>
@@ -2897,7 +2889,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14">
         <f t="shared" ref="B14:J23" si="11">B3-A3</f>
         <v>1200</v>
@@ -2939,7 +2931,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B15">
         <f t="shared" si="11"/>
         <v>1400</v>
@@ -2981,7 +2973,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B16">
         <f t="shared" si="11"/>
         <v>1600</v>
@@ -3023,7 +3015,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17">
         <f t="shared" si="11"/>
         <v>1800</v>
@@ -3065,7 +3057,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18">
         <f t="shared" si="11"/>
         <v>2000</v>
@@ -3107,7 +3099,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19">
         <f t="shared" si="11"/>
         <v>2200</v>
@@ -3149,7 +3141,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20">
         <f t="shared" si="11"/>
         <v>2400</v>
@@ -3191,7 +3183,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21">
         <f t="shared" si="11"/>
         <v>2600</v>
@@ -3233,7 +3225,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22">
         <f t="shared" si="11"/>
         <v>2800</v>
@@ -3275,7 +3267,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23">
         <f t="shared" si="11"/>
         <v>3000</v>
